--- a/canadaitems.xlsx
+++ b/canadaitems.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF0144-B14A-48EA-BEA3-2C8B586310BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh8zbr3xwsWbpsbl3zMZHzMn5bqOA=="/>
@@ -18,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t>Wireless keyboard and mouse for me including batteries</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -199,55 +205,65 @@
   </si>
   <si>
     <t>innerwear</t>
+  </si>
+  <si>
+    <t>Wireless keyboard and mouse including batteries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -263,60 +279,61 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,328 +523,330 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="18.13"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
-    <col customWidth="1" min="4" max="4" width="20.38"/>
-    <col customWidth="1" min="5" max="5" width="7.63"/>
-    <col customWidth="1" min="6" max="6" width="9.38"/>
-    <col customWidth="1" min="7" max="7" width="18.25"/>
-    <col customWidth="1" min="8" max="8" width="27.88"/>
-    <col customWidth="1" min="9" max="9" width="3.38"/>
-    <col customWidth="1" min="10" max="10" width="10.38"/>
-    <col customWidth="1" min="11" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="2:11" ht="14.25">
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="18.75">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7" t="s">
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="7" t="s">
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+    </row>
+    <row r="10" spans="2:11">
+      <c r="H10" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="8" t="s">
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="8" t="s">
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="H13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:11" ht="30">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="10" t="s">
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="8" t="s">
+    <row r="16" spans="2:11" ht="14.25">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="6" t="s">
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="8">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" t="s">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="7" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="7" t="s">
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C23">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C24">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" t="s">
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="11">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
       <c r="C27">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1797,9 +1816,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>